--- a/spécification.xlsx
+++ b/spécification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="montage financier" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t xml:space="preserve">Hypothèque  </t>
   </si>
@@ -92,14 +92,88 @@
     <t>http://www.domdomotique.com/product</t>
   </si>
   <si>
-    <t>lumièere extérieure</t>
+    <t>lumière extérieure</t>
+  </si>
+  <si>
+    <t>vérifier quand ikea spéciaux 20% cuisine au Canada</t>
+  </si>
+  <si>
+    <t>terrain Robert</t>
+  </si>
+  <si>
+    <t>terrain Boutin</t>
+  </si>
+  <si>
+    <t>Bienvenue Robert</t>
+  </si>
+  <si>
+    <t>Bienvenue totale</t>
+  </si>
+  <si>
+    <t>Bienvenue Boutin</t>
+  </si>
+  <si>
+    <t>H-1</t>
+  </si>
+  <si>
+    <t>H-2</t>
+  </si>
+  <si>
+    <t>H-3</t>
+  </si>
+  <si>
+    <t>H-4</t>
+  </si>
+  <si>
+    <t>H-5</t>
+  </si>
+  <si>
+    <t>Achat au prix de l'évaluation</t>
+  </si>
+  <si>
+    <t>Achat au prix réel tout mis sur le terrain de M. Boutin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Achat au prix réel et le montant est proportionné selon l'évaluation de chaque terrain </t>
+  </si>
+  <si>
+    <t>Achat au prix réel et le prix d'achat du terrain de Mme Robert à 50 000$</t>
+  </si>
+  <si>
+    <t>Comme H-4 mais au prix total de 315 000$</t>
+  </si>
+  <si>
+    <t>Droit de mutation - Taxe de Bienvenue</t>
+  </si>
+  <si>
+    <t>http://www.digitaltrends.com/home/zigbee-vs-zwave-vs-insteon-home-automation-protocols-explained/#ixzz3xL6rNmK2</t>
+  </si>
+  <si>
+    <t>protocoles</t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>openhab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,6 +197,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -141,21 +223,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="28">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -484,68 +624,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C22" sqref="C22:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1">
         <v>97500</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1"/>
+      <c r="E4" s="2">
+        <f>5/1000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
         <v>13000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1"/>
+      <c r="E5" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="1">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
         <v>81000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1"/>
+      <c r="E6" s="2">
+        <f>1.5/100</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>110000</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="C12">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1">
         <f>SUM(C4:C8)</f>
-        <v>301500</v>
+        <v>311500</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" s="3" customFormat="1">
+      <c r="B18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>21632</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
+        <f>C20/B20 *B19</f>
+        <v>32791.044776119401</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>214400</v>
+      </c>
+      <c r="C20" s="1">
+        <v>325000</v>
+      </c>
+      <c r="D20" s="1">
+        <f>C20-D19</f>
+        <v>292208.95522388059</v>
+      </c>
+      <c r="E20" s="1">
+        <v>275000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>265000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="1">
+        <f>B19 *$E4</f>
+        <v>108.16</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <f>D19 *$E4</f>
+        <v>163.955223880597</v>
+      </c>
+      <c r="E22" s="1">
+        <f>E19 *$E4</f>
+        <v>250</v>
+      </c>
+      <c r="F22" s="1">
+        <f>F19 *$E4</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <f>($E4 *$F4) + (B20 -$F4) *$E5</f>
+        <v>1894</v>
+      </c>
+      <c r="C23" s="1">
+        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (C20 -$F5) *$E6</f>
+        <v>3375</v>
+      </c>
+      <c r="D23" s="1">
+        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (D20 -$F5) *$E6</f>
+        <v>2883.1343283582091</v>
+      </c>
+      <c r="E23" s="1">
+        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (E20 -$F5) *$E6</f>
+        <v>2625</v>
+      </c>
+      <c r="F23" s="1">
+        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (F20 -$F5) *$E6</f>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1">
+        <f>B22+B23</f>
+        <v>2002.16</v>
+      </c>
+      <c r="C24" s="1">
+        <f>C22+C23</f>
+        <v>3375</v>
+      </c>
+      <c r="D24" s="1">
+        <f>D22+D23</f>
+        <v>3047.0895522388059</v>
+      </c>
+      <c r="E24" s="1">
+        <f>E22+E23</f>
+        <v>2875</v>
+      </c>
+      <c r="F24" s="1">
+        <f>F22+F23</f>
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -612,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A12:A13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -679,6 +1093,36 @@
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/spécification.xlsx
+++ b/spécification.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="montage financier" sheetId="1" r:id="rId1"/>
     <sheet name="question" sheetId="2" r:id="rId2"/>
     <sheet name="spécification" sheetId="3" r:id="rId3"/>
+    <sheet name="domoti" sheetId="4" r:id="rId4"/>
+    <sheet name="contacts" sheetId="5" r:id="rId5"/>
+    <sheet name="Géothermie" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="85">
   <si>
     <t xml:space="preserve">Hypothèque  </t>
   </si>
@@ -29,18 +32,12 @@
     <t>Montage financier</t>
   </si>
   <si>
-    <t>Celi</t>
-  </si>
-  <si>
     <t>base 32</t>
   </si>
   <si>
     <t>Emprunt Jocelyn</t>
   </si>
   <si>
-    <t xml:space="preserve">compte courant </t>
-  </si>
-  <si>
     <t>Question pour Municipalité</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Toilette efficace</t>
   </si>
   <si>
-    <t>Géothermie?</t>
-  </si>
-  <si>
     <t>Toit facile d'entretien</t>
   </si>
   <si>
@@ -98,54 +92,6 @@
     <t>vérifier quand ikea spéciaux 20% cuisine au Canada</t>
   </si>
   <si>
-    <t>terrain Robert</t>
-  </si>
-  <si>
-    <t>terrain Boutin</t>
-  </si>
-  <si>
-    <t>Bienvenue Robert</t>
-  </si>
-  <si>
-    <t>Bienvenue totale</t>
-  </si>
-  <si>
-    <t>Bienvenue Boutin</t>
-  </si>
-  <si>
-    <t>H-1</t>
-  </si>
-  <si>
-    <t>H-2</t>
-  </si>
-  <si>
-    <t>H-3</t>
-  </si>
-  <si>
-    <t>H-4</t>
-  </si>
-  <si>
-    <t>H-5</t>
-  </si>
-  <si>
-    <t>Achat au prix de l'évaluation</t>
-  </si>
-  <si>
-    <t>Achat au prix réel tout mis sur le terrain de M. Boutin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Achat au prix réel et le montant est proportionné selon l'évaluation de chaque terrain </t>
-  </si>
-  <si>
-    <t>Achat au prix réel et le prix d'achat du terrain de Mme Robert à 50 000$</t>
-  </si>
-  <si>
-    <t>Comme H-4 mais au prix total de 315 000$</t>
-  </si>
-  <si>
-    <t>Droit de mutation - Taxe de Bienvenue</t>
-  </si>
-  <si>
     <t>http://www.digitaltrends.com/home/zigbee-vs-zwave-vs-insteon-home-automation-protocols-explained/#ixzz3xL6rNmK2</t>
   </si>
   <si>
@@ -156,17 +102,193 @@
   </si>
   <si>
     <t>openhab</t>
+  </si>
+  <si>
+    <t>Thermostat</t>
+  </si>
+  <si>
+    <t>Nest</t>
+  </si>
+  <si>
+    <t>note : Ces sont des thermostats qui fonctionne avec le 24 volt</t>
+  </si>
+  <si>
+    <t>site web intéressant</t>
+  </si>
+  <si>
+    <t>smartthome.com</t>
+  </si>
+  <si>
+    <t>Caméra</t>
+  </si>
+  <si>
+    <t>netatmo</t>
+  </si>
+  <si>
+    <t>nest</t>
+  </si>
+  <si>
+    <t>spypoint</t>
+  </si>
+  <si>
+    <t>caleo</t>
+  </si>
+  <si>
+    <t>Station météo</t>
+  </si>
+  <si>
+    <t>homeremote</t>
+  </si>
+  <si>
+    <t>protocole</t>
+  </si>
+  <si>
+    <t>zigbee</t>
+  </si>
+  <si>
+    <t>zwave</t>
+  </si>
+  <si>
+    <t>2.4 gh</t>
+  </si>
+  <si>
+    <t>900 mh</t>
+  </si>
+  <si>
+    <t>casaconnect quebecois mais pas recommandé</t>
+  </si>
+  <si>
+    <t>note : privilégié  zigbee</t>
+  </si>
+  <si>
+    <t>produit domotique</t>
+  </si>
+  <si>
+    <t>Boite électrique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TED permet d'avoir des infos sur sa consommation </t>
+  </si>
+  <si>
+    <t>insteon</t>
+  </si>
+  <si>
+    <t>utiliser un relais ppur plinthe électrique (30$)</t>
+  </si>
+  <si>
+    <t>application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>IFTT</t>
+  </si>
+  <si>
+    <t>wemo  protoclole upnp(wallmart) LUMIÈRE PRISE ETC ..</t>
+  </si>
+  <si>
+    <t>ecobee</t>
+  </si>
+  <si>
+    <t>Locataire à Claude : Gypse</t>
+  </si>
+  <si>
+    <t>géothermie</t>
+  </si>
+  <si>
+    <t>Climatisation Duplessis</t>
+  </si>
+  <si>
+    <t>electricien</t>
+  </si>
+  <si>
+    <t>Jean-philippe brouillette (eastman client jocelyn)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carreleur </t>
+  </si>
+  <si>
+    <t>Guy GandMaison (Eastman client Jocelyn)</t>
+  </si>
+  <si>
+    <t>joint brique</t>
+  </si>
+  <si>
+    <t>Marco (recommandé par richard Desrochers)</t>
+  </si>
+  <si>
+    <t>Emprunt</t>
+  </si>
+  <si>
+    <t>Remboursement</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
+    <t>Intérêt</t>
+  </si>
+  <si>
+    <t>Décembre</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>mars</t>
+  </si>
+  <si>
+    <t>Caisse</t>
+  </si>
+  <si>
+    <t>Base 32</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>Mai</t>
+  </si>
+  <si>
+    <t>Juin</t>
+  </si>
+  <si>
+    <t>Géothermie type pcp (puits à colonne permanente)</t>
+  </si>
+  <si>
+    <t>http://www.guideperrier.com/article1324-1587/Geothermie-prix-puissance-longueur-de-tuyaux-et-profondeur-forage</t>
+  </si>
+  <si>
+    <t>http://www.simplex.ca/conseils-astuces/calculateur-btu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lumière </t>
+  </si>
+  <si>
+    <t>http://nanoleaf.me</t>
+  </si>
+  <si>
+    <t>http://www.ecohabitation.com/guide/fiches/maison-solaire-passive-disqus</t>
+  </si>
+  <si>
+    <t>https://maisonsaine.ca/wp-content/uploads/hydronique.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -197,14 +319,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -223,7 +337,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -252,22 +366,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="40"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="28">
+  <cellStyles count="41">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
@@ -281,6 +410,13 @@
     <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
@@ -294,6 +430,12 @@
     <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="3" builtinId="5"/>
   </cellStyles>
@@ -624,347 +766,264 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:D33"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
         <v>97500</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2">
-        <f>5/1000</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1">
-        <v>13000</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="1">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1">
+        <v>135000</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1">
-        <v>81000</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="2">
-        <f>1.5/100</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>115000</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="B7" s="1"/>
-      <c r="C7" s="1">
-        <v>110000</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="B8" s="1"/>
-      <c r="C8" s="1">
-        <v>10000</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="D9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <f>SUM(C4:C8)</f>
-        <v>311500</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <f>D5</f>
+        <v>135000</v>
+      </c>
+      <c r="H13" s="1">
+        <v>192</v>
+      </c>
+      <c r="I13" s="1">
+        <f>D6</f>
+        <v>115000</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <f>G13 +G13 *$F$5/12 -F14</f>
+        <v>135225</v>
+      </c>
+      <c r="H14" s="1">
+        <v>192</v>
+      </c>
+      <c r="I14" s="1">
+        <f>I13*$F$6 /12 +I13 -H13</f>
+        <v>114999.66666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" ref="G15:G17" si="0">G14 +G14 *$F$5/12 -F15</f>
+        <v>135450.375</v>
+      </c>
+      <c r="H15" s="1">
+        <v>192</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" ref="I15:I17" si="1">I14*$F$6 /12 +I14 -H14</f>
+        <v>114999.33277777779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" s="3" customFormat="1">
-      <c r="B18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="1">
-        <v>21632</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <f>C20/B20 *B19</f>
-        <v>32791.044776119401</v>
-      </c>
-      <c r="E19" s="1">
-        <v>50000</v>
-      </c>
-      <c r="F19" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="1">
-        <v>214400</v>
-      </c>
-      <c r="C20" s="1">
-        <v>325000</v>
-      </c>
-      <c r="D20" s="1">
-        <f>C20-D19</f>
-        <v>292208.95522388059</v>
-      </c>
-      <c r="E20" s="1">
-        <v>275000</v>
-      </c>
-      <c r="F20" s="1">
-        <v>265000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="1">
-        <f>B19 *$E4</f>
-        <v>108.16</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <f>D19 *$E4</f>
-        <v>163.955223880597</v>
-      </c>
-      <c r="E22" s="1">
-        <f>E19 *$E4</f>
-        <v>250</v>
-      </c>
-      <c r="F22" s="1">
-        <f>F19 *$E4</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="1">
-        <f>($E4 *$F4) + (B20 -$F4) *$E5</f>
-        <v>1894</v>
-      </c>
-      <c r="C23" s="1">
-        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (C20 -$F5) *$E6</f>
-        <v>3375</v>
-      </c>
-      <c r="D23" s="1">
-        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (D20 -$F5) *$E6</f>
-        <v>2883.1343283582091</v>
-      </c>
-      <c r="E23" s="1">
-        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (E20 -$F5) *$E6</f>
-        <v>2625</v>
-      </c>
-      <c r="F23" s="1">
-        <f>($E4 *$F4) +($F5 - $F4)*$E5 + (F20 -$F5) *$E6</f>
-        <v>2475</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
-        <f>B22+B23</f>
-        <v>2002.16</v>
-      </c>
-      <c r="C24" s="1">
-        <f>C22+C23</f>
-        <v>3375</v>
-      </c>
-      <c r="D24" s="1">
-        <f>D22+D23</f>
-        <v>3047.0895522388059</v>
-      </c>
-      <c r="E24" s="1">
-        <f>E22+E23</f>
-        <v>2875</v>
-      </c>
-      <c r="F24" s="1">
-        <f>F22+F23</f>
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
+        <v>76</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="0"/>
+        <v>135676.12562499999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>192</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>114998.99833240741</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="0"/>
+        <v>135902.25250104166</v>
+      </c>
+      <c r="H17" s="1">
+        <v>192</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>114998.66332962809</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -991,27 +1050,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1028,101 +1087,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1133,4 +1192,287 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>